--- a/other/output/field_qa_qc_data/rpd_calcs_2021.xlsx
+++ b/other/output/field_qa_qc_data/rpd_calcs_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">monitoring_location_id</t>
   </si>
@@ -55,22 +55,79 @@
     <t xml:space="preserve">Field Msr/Obs</t>
   </si>
   <si>
-    <t xml:space="preserve">Barium</t>
+    <t xml:space="preserve">Total Nitrate/Nitrite-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4500-NO3(F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit of Quantitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Phosphorus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4500-P-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenic</t>
   </si>
   <si>
     <t xml:space="preserve">200.8</t>
   </si>
   <si>
-    <t xml:space="preserve">=</t>
+    <t xml:space="preserve">U</t>
   </si>
   <si>
-    <t xml:space="preserve">Limit of Quantitation</t>
+    <t xml:space="preserve">Cadmium</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
+    <t xml:space="preserve">Chromium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Control Field Replicate Msr/Obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beryllium</t>
   </si>
   <si>
     <t xml:space="preserve">Calcium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobalt</t>
   </si>
   <si>
     <t xml:space="preserve">Iron</t>
@@ -82,19 +139,40 @@
     <t xml:space="preserve">Manganese</t>
   </si>
   <si>
+    <t xml:space="preserve">Molybdenum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphorus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Potassium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium</t>
   </si>
   <si>
     <t xml:space="preserve">Silicon</t>
   </si>
   <si>
-    <t xml:space="preserve">Sodium</t>
+    <t xml:space="preserve">Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">Quality Control Field Replicate Msr/Obs</t>
+    <t xml:space="preserve">Thallium</t>
   </si>
   <si>
-    <t xml:space="preserve">KR RM 31</t>
+    <t xml:space="preserve">Tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanadium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium</t>
   </si>
   <si>
     <t xml:space="preserve">Calcium, Total</t>
@@ -507,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -519,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>11.9</v>
+        <v>0.119</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -528,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -542,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -551,22 +629,22 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>16200</v>
+        <v>0.0416</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>500</v>
+        <v>0.04</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -577,28 +655,26 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>527</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F4"/>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -612,28 +688,26 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7320</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F5"/>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -647,28 +721,26 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="n">
-        <v>146</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F6"/>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -682,28 +754,26 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3010</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F7"/>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -717,28 +787,26 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9610</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>0.2</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -752,28 +820,26 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>42700</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -787,10 +853,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -799,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>11.9</v>
+        <v>0.122</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -808,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -822,19 +888,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>16300</v>
+        <v>0.0394</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -843,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>500</v>
+        <v>0.04</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -857,28 +923,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>625</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
       </c>
       <c r="I12" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -892,28 +956,26 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6960</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F13"/>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
       </c>
       <c r="I13" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -927,28 +989,26 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="n">
-        <v>149</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -962,28 +1022,26 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2910</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F15"/>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
       <c r="I15" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -997,28 +1055,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9740</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F16"/>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -1032,28 +1088,26 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="n">
-        <v>39500</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
       <c r="H17" t="s">
         <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -1064,7 +1118,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>44327</v>
@@ -1073,25 +1127,25 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>11.1</v>
+        <v>0.25</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
       </c>
       <c r="I18" t="n">
-        <v>0.021</v>
+        <v>0.2</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
@@ -1099,7 +1153,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>44327</v>
@@ -1108,13 +1162,13 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>0.417</v>
+        <v>0.0392</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -1123,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="I19" t="n">
-        <v>0.021</v>
+        <v>0.04</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -1134,7 +1188,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>44327</v>
@@ -1143,13 +1197,13 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>1.32</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
@@ -1158,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0053</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -1169,31 +1223,29 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>44327</v>
       </c>
       <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
       <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9.04</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F21"/>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
       </c>
       <c r="I21" t="n">
-        <v>0.021</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -1204,31 +1256,29 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>44327</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4.62</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F22"/>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
       </c>
       <c r="I22" t="n">
-        <v>0.021</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -1239,22 +1289,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>44327</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>4.06</v>
+        <v>0.455</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
@@ -1263,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0053</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -1274,7 +1324,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>44327</v>
@@ -1283,13 +1333,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>9.07</v>
+        <v>0.114</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
@@ -1298,7 +1348,7 @@
         <v>16</v>
       </c>
       <c r="I24" t="n">
-        <v>0.021</v>
+        <v>0.2</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -1309,7 +1359,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>44327</v>
@@ -1321,19 +1371,17 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
       <c r="I25" t="n">
-        <v>0.021</v>
+        <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -1344,34 +1392,34 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>44327</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>4.04</v>
+        <v>0.226</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0053</v>
+        <v>0.2</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
@@ -1379,22 +1427,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>13.8</v>
+        <v>0.0174</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -1403,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="I27" t="n">
-        <v>0.021</v>
+        <v>0.04</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
@@ -1423,22 +1471,20 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.39</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>0.021</v>
+        <v>0.2</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
@@ -1458,22 +1504,20 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7.23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F29"/>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0053</v>
+        <v>0.04</v>
       </c>
       <c r="J29" t="s">
         <v>17</v>
@@ -1490,25 +1534,23 @@
         <v>44404</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="n">
-        <v>13.7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
       </c>
       <c r="I30" t="n">
-        <v>0.021</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
@@ -1525,25 +1567,23 @@
         <v>44404</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.51</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F31"/>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
       </c>
       <c r="I31" t="n">
-        <v>0.021</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
@@ -1560,25 +1600,23 @@
         <v>44404</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6.95</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F32"/>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0053</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
@@ -1589,7 +1627,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>44404</v>
@@ -1598,33 +1636,33 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F33" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
       </c>
       <c r="I33" t="n">
-        <v>0.021</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>44404</v>
@@ -1633,22 +1671,20 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.267</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
       </c>
       <c r="I34" t="n">
-        <v>0.021</v>
+        <v>0.4</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
@@ -1659,7 +1695,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>44404</v>
@@ -1668,22 +1704,20 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.05</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F35"/>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0053</v>
+        <v>0.5</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
@@ -1694,66 +1728,64 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F36" t="n">
-        <v>11.7</v>
+        <v>16200</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
       </c>
       <c r="I36" t="n">
-        <v>0.021</v>
+        <v>500</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>29</v>
-      </c>
       <c r="E37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.287</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F37"/>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
       </c>
       <c r="I37" t="n">
-        <v>0.021</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
         <v>17</v>
@@ -1764,31 +1796,29 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.04</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0053</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
@@ -1802,22 +1832,20 @@
         <v>11</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" t="n">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F39"/>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -1837,63 +1865,61 @@
         <v>11</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F40" t="n">
-        <v>13</v>
+        <v>527</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" t="n">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F41"/>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -1913,28 +1939,28 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>7320</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -1945,19 +1971,19 @@
         <v>44404</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F43" t="n">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -1966,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1977,28 +2003,26 @@
         <v>11</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" t="n">
-        <v>14.3333333333333</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F44"/>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -2012,28 +2036,26 @@
         <v>11</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" t="n">
-        <v>13.3333333333333</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F45"/>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -2044,31 +2066,29 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" t="n">
-        <v>7.00000000000002</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F46"/>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
@@ -2079,37 +2099,37 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>3010</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -2123,22 +2143,20 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
@@ -2155,36 +2173,36 @@
         <v>44404</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F49" t="n">
-        <v>4.7</v>
+        <v>9610</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>44404</v>
@@ -2193,16 +2211,14 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F50"/>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H50" t="s">
         <v>16</v>
@@ -2219,25 +2235,23 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" t="n">
-        <v>8.7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F51"/>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
@@ -2250,6 +2264,2575 @@
       </c>
       <c r="K51" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="n">
+        <v>42700</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="n">
+        <v>16300</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="n">
+        <v>500</v>
+      </c>
+      <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="n">
+        <v>625</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="n">
+        <v>250</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6960</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="n">
+        <v>50</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" t="n">
+        <v>149</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="n">
+        <v>200</v>
+      </c>
+      <c r="J73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2910</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="n">
+        <v>500</v>
+      </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9740</v>
+      </c>
+      <c r="G76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" t="n">
+        <v>39500</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" t="s">
+        <v>54</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="J92" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9.04</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J93" t="s">
+        <v>21</v>
+      </c>
+      <c r="K93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J94" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="J95" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" t="s">
+        <v>54</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J97" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>56</v>
+      </c>
+      <c r="E98" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="J98" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J100" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="J101" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J102" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J103" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="J104" t="s">
+        <v>21</v>
+      </c>
+      <c r="K104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J105" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" t="s">
+        <v>54</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J106" t="s">
+        <v>21</v>
+      </c>
+      <c r="K106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" t="s">
+        <v>54</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="J107" t="s">
+        <v>21</v>
+      </c>
+      <c r="K107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C108" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" t="s">
+        <v>53</v>
+      </c>
+      <c r="E108" t="s">
+        <v>54</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J108" t="s">
+        <v>21</v>
+      </c>
+      <c r="K108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" t="s">
+        <v>54</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J109" t="s">
+        <v>21</v>
+      </c>
+      <c r="K109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C110" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="J110" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>57</v>
+      </c>
+      <c r="E111" t="s">
+        <v>58</v>
+      </c>
+      <c r="F111" t="n">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112" t="s">
+        <v>58</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" t="s">
+        <v>58</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" t="s">
+        <v>57</v>
+      </c>
+      <c r="E114" t="s">
+        <v>58</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>57</v>
+      </c>
+      <c r="E115" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" t="n">
+        <v>40</v>
+      </c>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" t="s">
+        <v>57</v>
+      </c>
+      <c r="E116" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116" t="n">
+        <v>45</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>21</v>
+      </c>
+      <c r="K116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>57</v>
+      </c>
+      <c r="E117" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>21</v>
+      </c>
+      <c r="K117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" t="s">
+        <v>57</v>
+      </c>
+      <c r="E118" t="s">
+        <v>58</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14.3333333333333</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C120" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" t="s">
+        <v>59</v>
+      </c>
+      <c r="E120" t="s">
+        <v>60</v>
+      </c>
+      <c r="F120" t="n">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>59</v>
+      </c>
+      <c r="E121" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7.00000000000002</v>
+      </c>
+      <c r="G121" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>21</v>
+      </c>
+      <c r="K121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" t="s">
+        <v>60</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>21</v>
+      </c>
+      <c r="K122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" t="s">
+        <v>59</v>
+      </c>
+      <c r="E124" t="s">
+        <v>60</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>21</v>
+      </c>
+      <c r="K124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" t="s">
+        <v>60</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>21</v>
+      </c>
+      <c r="K125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C126" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" t="s">
+        <v>59</v>
+      </c>
+      <c r="E126" t="s">
+        <v>60</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2312,16 +4895,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>11.9</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -2330,10 +4913,10 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -2347,16 +4930,16 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>16200</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -2365,10 +4948,10 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -2382,16 +4965,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
         <v>527</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -2400,10 +4983,10 @@
         <v>250</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -2417,16 +5000,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>7320</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -2435,10 +5018,10 @@
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -2452,16 +5035,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -2470,10 +5053,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -2487,16 +5070,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>3010</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -2505,10 +5088,10 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -2522,16 +5105,16 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>9610</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -2540,10 +5123,10 @@
         <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -2557,16 +5140,16 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>42700</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -2575,10 +5158,10 @@
         <v>2500</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -2589,19 +5172,19 @@
         <v>44404</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>11.9</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -2610,10 +5193,10 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -2624,19 +5207,19 @@
         <v>44404</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
         <v>16300</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -2645,10 +5228,10 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2659,19 +5242,19 @@
         <v>44404</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>625</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -2680,10 +5263,10 @@
         <v>250</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2694,19 +5277,19 @@
         <v>44404</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
         <v>6960</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -2715,10 +5298,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2729,19 +5312,19 @@
         <v>44404</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -2750,10 +5333,10 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -2764,19 +5347,19 @@
         <v>44404</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>2910</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -2785,10 +5368,10 @@
         <v>500</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -2799,19 +5382,19 @@
         <v>44404</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
         <v>9740</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -2820,10 +5403,10 @@
         <v>1000</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2834,19 +5417,19 @@
         <v>44404</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>39500</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
@@ -2855,15 +5438,15 @@
         <v>2500</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>44327</v>
@@ -2872,16 +5455,16 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F18" t="n">
         <v>11.1</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -2890,15 +5473,15 @@
         <v>0.021</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>44327</v>
@@ -2907,16 +5490,16 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F19" t="n">
         <v>0.417</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
@@ -2925,15 +5508,15 @@
         <v>0.021</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>44327</v>
@@ -2942,16 +5525,16 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F20" t="n">
         <v>1.32</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -2960,10 +5543,10 @@
         <v>0.0053</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -2974,19 +5557,19 @@
         <v>44327</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F21" t="n">
         <v>9.04</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -2995,10 +5578,10 @@
         <v>0.021</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3009,19 +5592,19 @@
         <v>44327</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F22" t="n">
         <v>4.62</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
@@ -3030,10 +5613,10 @@
         <v>0.021</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -3044,19 +5627,19 @@
         <v>44327</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F23" t="n">
         <v>4.06</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
@@ -3065,10 +5648,10 @@
         <v>0.0053</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -3082,16 +5665,16 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F24" t="n">
         <v>9.07</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
@@ -3100,10 +5683,10 @@
         <v>0.021</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -3117,16 +5700,16 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F25" t="n">
         <v>4.35</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
@@ -3135,10 +5718,10 @@
         <v>0.021</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -3152,16 +5735,16 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F26" t="n">
         <v>4.04</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -3170,10 +5753,10 @@
         <v>0.0053</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -3187,16 +5770,16 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F27" t="n">
         <v>13.8</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -3205,10 +5788,10 @@
         <v>0.021</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -3222,16 +5805,16 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F28" t="n">
         <v>2.39</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -3240,10 +5823,10 @@
         <v>0.021</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -3257,16 +5840,16 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F29" t="n">
         <v>7.23</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -3275,10 +5858,10 @@
         <v>0.0053</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -3289,19 +5872,19 @@
         <v>44404</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F30" t="n">
         <v>13.7</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -3310,10 +5893,10 @@
         <v>0.021</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -3324,19 +5907,19 @@
         <v>44404</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F31" t="n">
         <v>2.51</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -3345,10 +5928,10 @@
         <v>0.021</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -3359,19 +5942,19 @@
         <v>44404</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F32" t="n">
         <v>6.95</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
@@ -3380,15 +5963,15 @@
         <v>0.0053</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>44404</v>
@@ -3397,16 +5980,16 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F33" t="n">
         <v>11.8</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -3415,15 +5998,15 @@
         <v>0.021</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>44404</v>
@@ -3432,16 +6015,16 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F34" t="n">
         <v>0.267</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
@@ -3450,15 +6033,15 @@
         <v>0.021</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>44404</v>
@@ -3467,16 +6050,16 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F35" t="n">
         <v>1.05</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -3485,33 +6068,33 @@
         <v>0.0053</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F36" t="n">
         <v>11.7</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -3520,33 +6103,33 @@
         <v>0.021</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F37" t="n">
         <v>0.287</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -3555,33 +6138,33 @@
         <v>0.021</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F38" t="n">
         <v>1.04</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
@@ -3590,10 +6173,10 @@
         <v>0.0053</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -3607,16 +6190,16 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F39" t="n">
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -3625,10 +6208,10 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -3639,19 +6222,19 @@
         <v>44327</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F40" t="n">
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
@@ -3660,15 +6243,15 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>44327</v>
@@ -3677,16 +6260,16 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F41" t="n">
         <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -3695,10 +6278,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -3712,16 +6295,16 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F42" t="n">
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
@@ -3730,10 +6313,10 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -3744,19 +6327,19 @@
         <v>44404</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F43" t="n">
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -3765,10 +6348,10 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -3782,16 +6365,16 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F44" t="n">
         <v>14.3333333333333</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
@@ -3800,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -3814,19 +6397,19 @@
         <v>44327</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F45" t="n">
         <v>13.3333333333333</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
@@ -3835,15 +6418,15 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>44327</v>
@@ -3852,16 +6435,16 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F46" t="n">
         <v>7.00000000000002</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -3870,33 +6453,33 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>44327</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F47" t="n">
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
@@ -3905,10 +6488,10 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -3922,16 +6505,16 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F48" t="n">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
@@ -3940,10 +6523,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -3954,19 +6537,19 @@
         <v>44404</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F49" t="n">
         <v>4.7</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
@@ -3975,15 +6558,15 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>44404</v>
@@ -3992,16 +6575,16 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F50" t="n">
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
         <v>16</v>
@@ -4010,33 +6593,33 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F51" t="n">
         <v>8.7</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
@@ -4045,10 +6628,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4094,13 +6677,13 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -4111,13 +6694,13 @@
         <v>44327</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -4126,10 +6709,10 @@
         <v>0.021</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
         <v>9.07</v>
@@ -4149,13 +6732,13 @@
         <v>44327</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -4164,10 +6747,10 @@
         <v>0.021</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
         <v>4.35</v>
@@ -4176,7 +6759,7 @@
         <v>4.62</v>
       </c>
       <c r="L3" t="n">
-        <v>-6.02</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="4">
@@ -4187,13 +6770,13 @@
         <v>44327</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -4202,10 +6785,10 @@
         <v>0.0053</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
         <v>4.04</v>
@@ -4214,7 +6797,7 @@
         <v>4.06</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.49</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
@@ -4225,13 +6808,13 @@
         <v>44327</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -4240,10 +6823,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
         <v>22</v>
@@ -4263,13 +6846,13 @@
         <v>44327</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -4278,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J6" t="n">
         <v>14.3333333333333</v>
@@ -4301,13 +6884,13 @@
         <v>44404</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -4316,10 +6899,10 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
         <v>11.9</v>
@@ -4339,13 +6922,13 @@
         <v>44404</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -4354,10 +6937,10 @@
         <v>500</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
         <v>16200</v>
@@ -4366,7 +6949,7 @@
         <v>16300</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.62</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
@@ -4377,13 +6960,13 @@
         <v>44404</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -4392,10 +6975,10 @@
         <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
         <v>527</v>
@@ -4404,7 +6987,7 @@
         <v>625</v>
       </c>
       <c r="L9" t="n">
-        <v>-17.01</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="10">
@@ -4415,13 +6998,13 @@
         <v>44404</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -4430,10 +7013,10 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
         <v>7320</v>
@@ -4453,13 +7036,13 @@
         <v>44404</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -4468,10 +7051,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J11" t="n">
         <v>146</v>
@@ -4480,7 +7063,7 @@
         <v>149</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.03</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +7074,13 @@
         <v>44404</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -4506,10 +7089,10 @@
         <v>500</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
         <v>3010</v>
@@ -4529,13 +7112,13 @@
         <v>44404</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -4544,10 +7127,10 @@
         <v>1000</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J13" t="n">
         <v>9610</v>
@@ -4556,7 +7139,7 @@
         <v>9740</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.34</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="14">
@@ -4567,13 +7150,13 @@
         <v>44404</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -4582,10 +7165,10 @@
         <v>2500</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
         <v>42700</v>
@@ -4605,13 +7188,13 @@
         <v>44404</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -4620,10 +7203,10 @@
         <v>0.021</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J15" t="n">
         <v>13.8</v>
@@ -4643,13 +7226,13 @@
         <v>44404</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -4658,10 +7241,10 @@
         <v>0.021</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
         <v>2.39</v>
@@ -4670,7 +7253,7 @@
         <v>2.51</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="17">
@@ -4681,13 +7264,13 @@
         <v>44404</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -4696,10 +7279,10 @@
         <v>0.0053</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J17" t="n">
         <v>7.23</v>
@@ -4719,13 +7302,13 @@
         <v>44404</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -4734,10 +7317,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J18" t="n">
         <v>40</v>
@@ -4746,7 +7329,7 @@
         <v>45</v>
       </c>
       <c r="L18" t="n">
-        <v>-11.76</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="19">
@@ -4757,13 +7340,13 @@
         <v>44404</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -4772,10 +7355,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
@@ -4784,58 +7367,62 @@
         <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>-16.09</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>44327</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.021</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20"/>
+        <v>7.00000000000002</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13.33</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -4844,100 +7431,112 @@
         <v>0.021</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J21" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21"/>
+        <v>11.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0053</v>
+        <v>0.021</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22"/>
+        <v>0.267</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.0053</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>21</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23"/>
+        <v>1.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -4946,170 +7545,18 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J24" t="n">
-        <v>7.00000000000002</v>
+        <v>9</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>8.7</v>
       </c>
       <c r="L24" t="n">
-        <v>-13.33</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-7.22</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" t="n">
-        <v>9</v>
-      </c>
-      <c r="K28" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="L28" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/other/output/field_qa_qc_data/rpd_calcs_2021.xlsx
+++ b/other/output/field_qa_qc_data/rpd_calcs_2021.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="all_dup_sample_results" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="loq_pass_dup_sample_results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="rpd_values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="rpd_values" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">monitoring_location_id</t>
   </si>
@@ -205,7 +204,16 @@
     <t xml:space="preserve">quality_control_field_replicate_msr_obs</t>
   </si>
   <si>
-    <t xml:space="preserve">rpd_%</t>
+    <t xml:space="preserve">rpd_eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpd_pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpd_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing duplicate observation; field observation meets LOQ and LOQ_2x requirements.</t>
   </si>
 </sst>
 </file>
@@ -4857,31 +4865,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -4889,490 +4906,544 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="N2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16200</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>527</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="n">
-        <v>250</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7320</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="n">
-        <v>146</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3010</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="n">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9610</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="n">
-        <v>42700</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16300</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.021</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="n">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9.04</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="n">
-        <v>625</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.021</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="n">
-        <v>250</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="N12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6960</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0053</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="n">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="N13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="n">
-        <v>149</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="N14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2910</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="n">
-        <v>500</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14.3333333333333</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="N15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -5382,32 +5453,33 @@
         <v>44404</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9740</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -5417,347 +5489,369 @@
         <v>44404</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="n">
-        <v>39500</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9.04</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="n">
+        <v>500</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="n">
+        <v>16200</v>
+      </c>
+      <c r="K24" t="n">
+        <v>16300</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="J26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -5767,32 +5861,33 @@
         <v>44404</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -5802,32 +5897,39 @@
         <v>44404</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="n">
+        <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>527</v>
+      </c>
+      <c r="K28" t="n">
+        <v>625</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="N28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -5837,32 +5939,33 @@
         <v>44404</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="J29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -5872,32 +5975,39 @@
         <v>44404</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="n">
+        <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7320</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6960</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="N30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -5907,32 +6017,39 @@
         <v>44404</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="n">
+        <v>146</v>
+      </c>
+      <c r="K31" t="n">
+        <v>149</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="N31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -5942,347 +6059,369 @@
         <v>44404</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="J32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="n">
+        <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="n">
+        <v>500</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="J35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3010</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2910</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="N35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1000</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9740</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="J38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" t="n">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" t="n">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" t="n">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6.25</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -6292,32 +6431,33 @@
         <v>44404</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" t="n">
-        <v>40</v>
-      </c>
-      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="n">
         <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -6327,172 +6467,197 @@
         <v>44404</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" t="n">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43"/>
+      <c r="N43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" t="n">
-        <v>14.3333333333333</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2500</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="n">
+        <v>42700</v>
+      </c>
+      <c r="K44" t="n">
+        <v>39500</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="N44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" t="n">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" t="n">
-        <v>7.00000000000002</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.021</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="N46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44327</v>
+        <v>44404</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" t="n">
-        <v>8</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.021</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -6502,32 +6667,39 @@
         <v>44404</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0053</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -6537,1028 +6709,943 @@
         <v>44404</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="n">
+        <v>40</v>
+      </c>
+      <c r="K49" t="n">
+        <v>45</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="N49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>44404</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="N50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44404</v>
+        <v>44327</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="N51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" t="n">
+        <v>77.03</v>
+      </c>
+      <c r="N52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53"/>
+      <c r="N53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54"/>
+      <c r="N54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55"/>
+      <c r="N55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56"/>
+      <c r="N56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="n">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58"/>
+      <c r="N58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K59"/>
+      <c r="L59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59"/>
+      <c r="N59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60"/>
+      <c r="N60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="n">
+        <v>21</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62"/>
+      <c r="N62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63"/>
+      <c r="N63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C64" t="s">
         <v>59</v>
       </c>
-      <c r="E51" t="s">
+      <c r="D64" t="s">
         <v>60</v>
       </c>
-      <c r="F51" t="n">
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7.00000000000002</v>
+      </c>
+      <c r="K64" t="n">
+        <v>8</v>
+      </c>
+      <c r="L64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="N64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65"/>
+      <c r="N65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66"/>
+      <c r="N66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K67" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="N68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L69" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C70" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70"/>
+      <c r="L70" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70"/>
+      <c r="N70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" t="n">
+        <v>9</v>
+      </c>
+      <c r="K72" t="n">
         <v>8.7</v>
       </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.04</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="n">
-        <v>22</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13</v>
-      </c>
-      <c r="L5" t="n">
-        <v>51.43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.3333333333333</v>
-      </c>
-      <c r="K6" t="n">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="n">
-        <v>500</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>16200</v>
-      </c>
-      <c r="K8" t="n">
-        <v>16300</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="n">
-        <v>250</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="n">
-        <v>527</v>
-      </c>
-      <c r="K9" t="n">
-        <v>625</v>
-      </c>
-      <c r="L9" t="n">
-        <v>17.01</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="n">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7320</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6960</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.04</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>146</v>
-      </c>
-      <c r="K11" t="n">
-        <v>149</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="n">
-        <v>500</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3010</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2910</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9740</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2500</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="n">
-        <v>42700</v>
-      </c>
-      <c r="K14" t="n">
-        <v>39500</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.79</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="n">
-        <v>40</v>
-      </c>
-      <c r="K18" t="n">
-        <v>45</v>
-      </c>
-      <c r="L18" t="n">
-        <v>11.76</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>16.09</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>7.00000000000002</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.22</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9</v>
-      </c>
-      <c r="K24" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="L72" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" t="n">
         <v>3.39</v>
       </c>
+      <c r="N72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
